--- a/Documentation/Scrum Artifacts/Product Backlog (Full Project).xlsx
+++ b/Documentation/Scrum Artifacts/Product Backlog (Full Project).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prototroid\Documents\EECS_448\Project3\Documentation\Scrum Artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/FinalProject/Documentation/Scrum Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680694CB-DFF1-4001-865B-F03B989A7657}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F7EB93-5B00-724A-B621-B8995B8E229D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="456" windowWidth="28044" windowHeight="16416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>TODO List</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Item generation and abilites</t>
-  </si>
-  <si>
-    <t>Add small story</t>
   </si>
   <si>
     <t>Leaderboard class</t>
@@ -510,18 +507,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -533,7 +530,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -574,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -585,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -596,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -607,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -618,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -629,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -640,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -651,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -662,29 +659,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -695,18 +692,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="8">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -717,24 +714,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4">
-        <f>SUM(B3:B17)</f>
-        <v>54</v>
+      <c r="B17" s="4">
+        <f>SUM(B3:B16)</f>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum Artifacts/Product Backlog (Full Project).xlsx
+++ b/Documentation/Scrum Artifacts/Product Backlog (Full Project).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/FinalProject/Documentation/Scrum Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F7EB93-5B00-724A-B621-B8995B8E229D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC421B23-6A47-EF47-B8F7-C55F4103403A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>TODO List</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Additional enemies types that can spawn</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>Game UI</t>
+  </si>
+  <si>
+    <t>Game Story</t>
+  </si>
+  <si>
+    <t>Decided Not To Add</t>
   </si>
 </sst>
 </file>
@@ -507,15 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -561,6 +574,9 @@
       <c r="C3" s="9">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -581,6 +597,9 @@
       <c r="C4" s="9">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -592,6 +611,9 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -603,6 +625,9 @@
       <c r="C6" s="9">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -614,6 +639,9 @@
       <c r="C7" s="9">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -625,6 +653,9 @@
       <c r="C8" s="9">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -636,6 +667,9 @@
       <c r="C9" s="9">
         <v>5</v>
       </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -647,6 +681,9 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -658,6 +695,9 @@
       <c r="C11" s="9">
         <v>4</v>
       </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -669,6 +709,9 @@
       <c r="C12" s="9">
         <v>4</v>
       </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -680,47 +723,87 @@
       <c r="C13" s="9">
         <v>4</v>
       </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
       </c>
       <c r="C14" s="9">
         <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
-        <f>SUM(B3:B16)</f>
-        <v>53</v>
+      <c r="B19" s="4">
+        <f>SUM(B3:B18)</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
